--- a/data/case.xlsx
+++ b/data/case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28365" windowHeight="12840"/>
+    <workbookView windowWidth="19365" windowHeight="9390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>method</t>
   </si>
@@ -132,16 +132,7 @@
     <t>C2</t>
   </si>
   <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>{'code': 10000, 'msg': 'ok', 'data': [{'deptId': '111', 'name': '门诊儿科'}, {'deptId': '147', 'name': '门诊口腔科'}, {'deptId': '149', 'name': '门诊五官科'}, {'deptId': '150', 'name': '心理咨询室'}, {'deptId': '230', 'name': '门诊中医科（二）'}, {'deptId': '151', 'name': '急诊室'}, {'deptId': '186', 'name': '产后康复'}, {'deptId': '112', 'name': '门诊中医科'}, {'deptId': '222', 'name': '门诊中医妇科'}, {'deptId': '206', 'name': '门诊中医儿科'}, {'deptId': '116', 'name': '门诊妇科'}, {'deptId': '117', 'name': '门诊产科'}, {'deptId': '138', 'name': '门诊儿保科'}, {'deptId': '140', 'name': '门诊皮肤科'}, {'deptId': '141', 'name': '门诊内科'}, {'deptId': '142', 'name': '门诊外科'}]}</t>
-  </si>
-  <si>
     <t>C3</t>
-  </si>
-  <si>
-    <t>{'code': 90010, 'msg': '缺少参数 \tdeptId'}</t>
   </si>
   <si>
     <t>C4</t>
@@ -315,12 +306,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -621,153 +618,157 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1091,8 +1092,8 @@
   </sheetPr>
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="6"/>
@@ -1161,18 +1162,6 @@
       <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
       <c r="K2" t="s">
         <v>19</v>
       </c>
@@ -1204,9 +1193,9 @@
       <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D4" s="3">
         <f>Sheet2!C2</f>
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="K4" t="s">
         <v>24</v>
@@ -1242,22 +1231,22 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D6" s="3">
         <f>Sheet2!C2</f>
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <f>Sheet2!C3</f>
         <v>0</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
       </c>
-      <c r="H6">
-        <f>Sheet2!C5</f>
+      <c r="H6" s="3">
+        <f>Sheet2!C4</f>
         <v>0</v>
       </c>
       <c r="L6">
@@ -1278,7 +1267,7 @@
         <v>34</v>
       </c>
       <c r="D7">
-        <f>Sheet2!C4</f>
+        <f>Sheet2!C5</f>
         <v>0</v>
       </c>
     </row>
@@ -1300,13 +1289,14 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="C2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="10.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="10.8571428571429" customWidth="1"/>
     <col min="4" max="4" width="140.571428571429" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1324,47 +1314,45 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" ht="165.75" customHeight="1" spans="1:4">
       <c r="A2" t="s">
         <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" ht="165.75" customHeight="1" spans="1:4">
+      <c r="A3" t="s">
         <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
+      <c r="C3"/>
+      <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" ht="15" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2">
+        <f>D3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" ht="15" customHeight="1" spans="1:4">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="1"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>

--- a/data/case.xlsx
+++ b/data/case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19365" windowHeight="9390" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>method</t>
   </si>
@@ -129,13 +129,39 @@
     <t>respose</t>
   </si>
   <si>
+    <t>cells</t>
+  </si>
+  <si>
     <t>C2</t>
   </si>
   <si>
+    <t>{'code': 10000, 'msg': 'ok', 'data': [{'deptId': '111', 'name': '门诊儿科'}, {'deptId': '147', 'name': '门诊口腔科'}, {'deptId': '149', 'name': '门诊五官科'}, {'deptId': '230', 'name': '门诊中医科（二）'}, {'deptId': '150', 'name': '心理咨询室'}, {'deptId': '151', 'name': '急诊室'}, {'deptId': '186', 'name': '产后康复'}, {'deptId': '112', 'name': '门诊中医科'}, {'deptId': '222', 'name': '门诊中医妇科'}, {'deptId': '116', 'name': '门诊妇科'}, {'deptId': '117', 'name': '门诊产科'}, {'deptId': '138', 'name': '门诊儿保科'}, {'deptId': '140', 'name': '门诊皮肤科'}, {'deptId': '141', 'name': '门诊内科'}, {'deptId': '142', 'name': '门诊外科'}, {'deptId': '206', 'name': '门诊中医儿科'}, {'deptId': '213', 'name': '门诊介入&amp;血管瘤'}]}</t>
+  </si>
+  <si>
     <t>C3</t>
   </si>
   <si>
+    <t>{
+ "code": 10000,
+ "msg": "ok",
+ "data": [{
+  "date": "2020-01-19",
+  "period": [
+   "am",
+   "pm"
+  ],
+  "end": "123"
+ }]
+}</t>
+  </si>
+  <si>
     <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>end</t>
   </si>
 </sst>
 </file>
@@ -143,20 +169,103 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="0"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF94558D"/>
+      <name val="Source Code Pro"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF94558D"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -185,23 +294,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -210,21 +312,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -246,51 +334,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -321,6 +364,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -351,19 +466,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,72 +509,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,6 +555,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -535,6 +593,26 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,41 +649,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -615,159 +658,162 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1093,7 +1139,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="6"/>
@@ -1193,9 +1239,9 @@
       <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="6">
         <f>Sheet2!C2</f>
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="K4" t="s">
         <v>24</v>
@@ -1231,21 +1277,21 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="6">
         <f>Sheet2!C2</f>
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="6">
         <f>Sheet2!C3</f>
         <v>0</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="6">
         <f>Sheet2!C4</f>
         <v>0</v>
       </c>
@@ -1287,20 +1333,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="C2:D3"/>
+      <selection activeCell="C3" sqref="C3:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="10.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="10.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="140.571428571429" customWidth="1"/>
+    <col min="2" max="2" width="16.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="24.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="157.428571428571" customWidth="1"/>
+    <col min="5" max="5" width="14.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1313,45 +1360,65 @@
       <c r="D1" t="s">
         <v>36</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" ht="165.75" customHeight="1" spans="1:4">
+    <row r="2" ht="165.75" customHeight="1" spans="1:5">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="C2"/>
-      <c r="D2" s="1"/>
+      <c r="C2">
+        <v>111</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" ht="165.75" customHeight="1" spans="1:4">
+    <row r="3" ht="165.75" customHeight="1" spans="1:5">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
       <c r="C3"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:4">
+    <row r="4" ht="15" customHeight="1" spans="1:5">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="2">
-        <f>D3</f>
-        <v>0</v>
+      <c r="C4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" ht="15" customHeight="1" spans="1:5">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="C5"/>
+      <c r="E5" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/data/case.xlsx
+++ b/data/case.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>method</t>
   </si>
@@ -114,54 +114,58 @@
     <t>period</t>
   </si>
   <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>/Registration/time</t>
+  </si>
+  <si>
+    <t>scheduleId</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>respose</t>
+  </si>
+  <si>
+    <t>cells</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>{'code': 10000, 'msg': 'ok', 'data': [{'deptId': '111', 'name': '门诊儿科'}, {'deptId': '147', 'name': '门诊口腔科'}, {'deptId': '149', 'name': '门诊五官科'}, {'deptId': '230', 'name': '门诊中医科（二）'}, {'deptId': '150', 'name': '心理咨询室'}, {'deptId': '151', 'name': '急诊室'}, {'deptId': '186', 'name': '产后康复'}, {'deptId': '112', 'name': '门诊中医科'}, {'deptId': '222', 'name': '门诊中医妇科'}, {'deptId': '116', 'name': '门诊妇科'}, {'deptId': '117', 'name': '门诊产科'}, {'deptId': '138', 'name': '门诊儿保科'}, {'deptId': '140', 'name': '门诊皮肤科'}, {'deptId': '141', 'name': '门诊内科'}, {'deptId': '142', 'name': '门诊外科'}, {'deptId': '206', 'name': '门诊中医儿科'}, {'deptId': '213', 'name': '门诊介入&amp;血管瘤'}]}</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>2020-01-19</t>
+  </si>
+  <si>
+    <t>{'code': 10000, 'msg': 'ok', 'data': [{'date': '2020-01-19', 'period': ['pm']}, {'date': '2020-01-20', 'period': ['am', 'pm']}, {'date': '2020-01-21', 'period': ['am', 'pm']}, {'date': '2020-01-22', 'period': ['am', 'pm']}, {'date': '2020-01-23', 'period': ['am', 'pm']}, {'date': '2020-01-24', 'period': ['am', 'pm']}, {'date': '2020-01-25', 'period': ['am', 'pm']}, {'date': '2020-01-26', 'period': ['am', 'pm']}]}</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>pm</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>1363767</t>
+  </si>
+  <si>
+    <t>{'code': 10000, 'msg': 'ok', 'data': [{'equipDoctor': 0, 'scheduleCode': '2020/1/19|111|7|68|2', 'regType': 0, 'scheduleId': '1363767', 'scheduleDate': '2020-01-19', 'weekDay': '星期日', 'doctorId': '68', 'period': 'pm', 'num': '11', 'image': 'http://his.mobimedical.cn/uploads/b/MbTXQN2k/d/f/6/4/5bfbc4f0d933d.jpg', 'doctorName': '肖会琼', 'title': '门诊儿科', 'fee': '9', 'beGoodAt': '儿科常见病、多发病的诊治，如小儿支气管炎哮喘等呼吸道系统疾病等', 'description': '&lt;p&gt;\r\n\t从事儿科临床工作40余年，擅长儿科常见病、多发病的诊治，如小儿支气管炎哮喘等呼吸道系统疾病等。\r\n&lt;/p&gt;', 'profession': '主治医师'}]}</t>
+  </si>
+  <si>
     <t>D4</t>
-  </si>
-  <si>
-    <t>/Registration/time</t>
-  </si>
-  <si>
-    <t>scheduleId</t>
-  </si>
-  <si>
-    <t>row</t>
-  </si>
-  <si>
-    <t>respose</t>
-  </si>
-  <si>
-    <t>cells</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>{'code': 10000, 'msg': 'ok', 'data': [{'deptId': '111', 'name': '门诊儿科'}, {'deptId': '147', 'name': '门诊口腔科'}, {'deptId': '149', 'name': '门诊五官科'}, {'deptId': '230', 'name': '门诊中医科（二）'}, {'deptId': '150', 'name': '心理咨询室'}, {'deptId': '151', 'name': '急诊室'}, {'deptId': '186', 'name': '产后康复'}, {'deptId': '112', 'name': '门诊中医科'}, {'deptId': '222', 'name': '门诊中医妇科'}, {'deptId': '116', 'name': '门诊妇科'}, {'deptId': '117', 'name': '门诊产科'}, {'deptId': '138', 'name': '门诊儿保科'}, {'deptId': '140', 'name': '门诊皮肤科'}, {'deptId': '141', 'name': '门诊内科'}, {'deptId': '142', 'name': '门诊外科'}, {'deptId': '206', 'name': '门诊中医儿科'}, {'deptId': '213', 'name': '门诊介入&amp;血管瘤'}]}</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>{
- "code": 10000,
- "msg": "ok",
- "data": [{
-  "date": "2020-01-19",
-  "period": [
-   "am",
-   "pm"
-  ],
-  "end": "123"
- }]
-}</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>end</t>
   </si>
 </sst>
 </file>
@@ -169,10 +173,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -199,7 +203,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -207,65 +211,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -294,6 +239,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,17 +325,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -341,9 +346,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -364,25 +368,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,157 +518,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,21 +559,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -597,22 +586,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,6 +633,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -658,148 +662,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="2">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1139,7 +1143,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="6"/>
@@ -1239,7 +1243,7 @@
       <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="6" t="str">
         <f>Sheet2!C2</f>
         <v>111</v>
       </c>
@@ -1277,23 +1281,23 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="6" t="str">
         <f>Sheet2!C2</f>
         <v>111</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="6" t="str">
         <f>Sheet2!C3</f>
-        <v>0</v>
+        <v>2020-01-19</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="6" t="str">
         <f>Sheet2!C4</f>
-        <v>0</v>
+        <v>pm</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -1312,9 +1316,9 @@
       <c r="C7" t="s">
         <v>34</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="str">
         <f>Sheet2!C5</f>
-        <v>0</v>
+        <v>1363767</v>
       </c>
     </row>
   </sheetData>
@@ -1336,7 +1340,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1371,11 +1375,11 @@
       <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="C2">
-        <v>111</v>
+      <c r="C2" t="s">
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>22</v>
@@ -1383,14 +1387,16 @@
     </row>
     <row r="3" ht="165.75" customHeight="1" spans="1:5">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="C3"/>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>25</v>
@@ -1398,12 +1404,14 @@
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="C4"/>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3" t="s">
         <v>25</v>
@@ -1411,14 +1419,19 @@
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5"/>
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
       <c r="E5" s="5" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
